--- a/excel/biofeedback_eeg.xlsx
+++ b/excel/biofeedback_eeg.xlsx
@@ -75,10 +75,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>5.6</t>
+    <t>5</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,10 +410,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -442,10 +442,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -485,7 +485,6 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -497,7 +496,6 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
